--- a/deal_excel/excel_ouput/temp_xlsx.xlsx
+++ b/deal_excel/excel_ouput/temp_xlsx.xlsx
@@ -1,80 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project_exercises\deal_excel\excel_ouput\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet_create" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>列3</t>
-  </si>
-  <si>
-    <t>列4</t>
-  </si>
-  <si>
-    <t>列5</t>
-  </si>
-  <si>
-    <t>列6</t>
-  </si>
-  <si>
-    <t>列7</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,32 +67,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G7" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="列1"/>
@@ -401,82 +360,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.375" style="2" customWidth="1"/>
+    <col width="10" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="9.625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="9.375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="9.25" customWidth="1" style="4" min="5" max="5"/>
+    <col width="9.375" customWidth="1" style="4" min="6" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43891</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>列1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>列2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>列3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>列4</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>列5</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>列6</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>列7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>43892</v>
       </c>
-      <c r="D2" s="1">
+      <c r="B2" s="1" t="n">
         <v>43893</v>
       </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1" t="n">
         <v>43894</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D2" s="1" t="n">
         <v>43895</v>
       </c>
-      <c r="G2" s="1">
+      <c r="E2" s="1" t="n">
         <v>43896</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4"/>
+      <c r="F2" s="1" t="n">
+        <v>43897</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>43898</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>